--- a/biology/Zoologie/Euptychiina/Euptychiina.xlsx
+++ b/biology/Zoologie/Euptychiina/Euptychiina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euptychiina sont une sous-tribu de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Satyrinae et de la tribu des Satyrini. Très diversifiée, elle regroupe environ 400 espèces décrites, principalement originaires d'Amérique du Sud et d'Amérique centrale, avec aussi quelques espèces en Amérique du Nord et une en Asie orientale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Euptychiina sont une sous-tribu de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Satyrinae et de la tribu des Satyrini. Très diversifiée, elle regroupe environ 400 espèces décrites, principalement originaires d'Amérique du Sud et d'Amérique centrale, avec aussi quelques espèces en Amérique du Nord et une en Asie orientale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-tribu a été décrite par l'entomologiste finlandais Enzio Reuter (en) en 1896[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-tribu a été décrite par l'entomologiste finlandais Enzio Reuter (en) en 1896.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste selon le site « nymphalidae.net »[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste selon le site « nymphalidae.net » :
 Amiga Nakahara, Willmott &amp; Espeland, 2019
 Amphidecta A. Butler, 1867
 Archeuptychia Forster, 1964
@@ -592,10 +608,10 @@
 Stevenaria Viloria, Costa, Neild &amp; Nakahara, 2016
 Taydebis Freitas, 2003
 Taygetina Forster, 1964
-Taygetis Hübner, [1819]
+Taygetis Hübner, 
 Yphthimoides Forster, 1964
 Zischkaia Forster, 1964
-Certaines sources citent d'autres genres, notamment[4] : 
+Certaines sources citent d'autres genres, notamment : 
 Coeruleotaygetis Forster, 1964 — inclus ci-dessus dans Taygetina
 Taygetomorpha Miller, 2004 — inclus ci-dessus dans Pseudodebis
 			Amiga arnaca - MHNT
